--- a/Census/Variables.xlsx
+++ b/Census/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KeithKessens/DotAsset/dotasset/Census/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB69C15-7DAE-E842-A490-438F0F63D4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E93540-B8D5-974F-967F-76E4D578D284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="760" windowWidth="15420" windowHeight="17300" xr2:uid="{B67A4C84-5F53-AD40-B318-A698B8A9A598}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15140" windowHeight="17360" xr2:uid="{B67A4C84-5F53-AD40-B318-A698B8A9A598}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>COUNTY</t>
   </si>
@@ -99,6 +96,21 @@
   </si>
   <si>
     <t>Total Population of Asian</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>P001001</t>
+  </si>
+  <si>
+    <t>P001003</t>
+  </si>
+  <si>
+    <t>P001004</t>
+  </si>
+  <si>
+    <t>P001006</t>
   </si>
 </sst>
 </file>
@@ -495,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B27F3C-BE5E-8E48-A3B4-7E17355646DA}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -510,27 +522,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -538,13 +550,13 @@
     </row>
     <row r="3" spans="1:4" ht="18">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2000</v>
@@ -552,13 +564,13 @@
     </row>
     <row r="4" spans="1:4" ht="18">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4">
         <v>2000</v>
@@ -566,13 +578,13 @@
     </row>
     <row r="5" spans="1:4" ht="18">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -580,13 +592,13 @@
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -594,29 +606,101 @@
     </row>
     <row r="7" spans="1:4" ht="18">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2010</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2010</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2010</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -625,7 +709,10 @@
     <hyperlink ref="A5" r:id="rId3" display="https://api.census.gov/data/2000/dec/pl/variables/PL001003.json" xr:uid="{5244B998-1458-B744-9257-52CE1F872D32}"/>
     <hyperlink ref="A6" r:id="rId4" display="https://api.census.gov/data/2000/dec/pl/variables/PL001004.json" xr:uid="{9B6CA5D0-36EF-3A46-AC6F-53595CE4A4C0}"/>
     <hyperlink ref="A7" r:id="rId5" display="https://api.census.gov/data/2000/dec/pl/variables/PL001006.json" xr:uid="{C47940EB-4CCB-A14C-8DFB-C2A9A8B2E32F}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://api.census.gov/data/2010/dec/pl/variables/P001001.json" xr:uid="{E22F2F05-E13C-1142-8F12-41AAFBB543B2}"/>
+    <hyperlink ref="A11" r:id="rId7" display="https://api.census.gov/data/2010/dec/pl/variables/P001003.json" xr:uid="{615E8F1D-8438-454B-84A0-C4E7228CD3A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Census/Variables.xlsx
+++ b/Census/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KeithKessens/DotAsset/dotasset/Census/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E93540-B8D5-974F-967F-76E4D578D284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9AD28E-7354-1141-AF02-E0E9618463BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15140" windowHeight="17360" xr2:uid="{B67A4C84-5F53-AD40-B318-A698B8A9A598}"/>
+    <workbookView xWindow="19220" yWindow="500" windowWidth="19180" windowHeight="19520" xr2:uid="{B67A4C84-5F53-AD40-B318-A698B8A9A598}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="CONCIT" localSheetId="0">Sheet1!$A$8</definedName>
     <definedName name="COUNTY" localSheetId="0">Sheet1!$A$9</definedName>
     <definedName name="COUSUB" localSheetId="0">Sheet1!$A$10</definedName>
+    <definedName name="P1_001N" localSheetId="0">Sheet1!$A$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>COUNTY</t>
   </si>
@@ -111,6 +112,18 @@
   </si>
   <si>
     <t>P001006</t>
+  </si>
+  <si>
+    <t>P1_001N</t>
+  </si>
+  <si>
+    <t>P1_003N</t>
+  </si>
+  <si>
+    <t>P1_004N</t>
+  </si>
+  <si>
+    <t>P1_006N</t>
   </si>
 </sst>
 </file>
@@ -507,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B27F3C-BE5E-8E48-A3B4-7E17355646DA}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -702,6 +715,87 @@
         <v>2010</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="18">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://api.census.gov/data/2010/dec/pl/variables/COUNTY.json" xr:uid="{12444BB0-F403-A249-AB2F-C86A2BF3C498}"/>
@@ -711,6 +805,7 @@
     <hyperlink ref="A7" r:id="rId5" display="https://api.census.gov/data/2000/dec/pl/variables/PL001006.json" xr:uid="{C47940EB-4CCB-A14C-8DFB-C2A9A8B2E32F}"/>
     <hyperlink ref="A10" r:id="rId6" display="https://api.census.gov/data/2010/dec/pl/variables/P001001.json" xr:uid="{E22F2F05-E13C-1142-8F12-41AAFBB543B2}"/>
     <hyperlink ref="A11" r:id="rId7" display="https://api.census.gov/data/2010/dec/pl/variables/P001003.json" xr:uid="{615E8F1D-8438-454B-84A0-C4E7228CD3A6}"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://api.census.gov/data/2020/dec/pl/variables/P1_001N.json" xr:uid="{D853698B-D99E-F845-B699-74F865184EDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
